--- a/src/analysis_examples/circadb/results_lomb/cosinor_10451123_slc29a1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10451123_slc29a1_.xlsx
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.24250770500252006, 0.3846561187502091]</t>
+          <t>[0.24281883715015407, 0.3843449866025751]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>8.553349806206256e-09</v>
+        <v>7.938615098623814e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>8.553349806206256e-09</v>
+        <v>7.938615098623814e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.7170001251436169</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.9434212172942331, -0.49057903299300065]</t>
+          <t>[-0.9434212172942322, -0.49057903299300154]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.35807649041299233, 0.43196606343709704]</t>
+          <t>[0.3580513941831049, 0.4319911596669845]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.715915915915986</v>
       </c>
       <c r="X2" t="n">
-        <v>1.858258258258304</v>
+        <v>1.858258258258308</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.573573573573666</v>
+        <v>3.573573573573663</v>
       </c>
     </row>
   </sheetData>
